--- a/light/graph/LinegraphLight.xlsx
+++ b/light/graph/LinegraphLight.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takuma\Desktop\Reserch\ver_19-7-5\lighting\praph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takuma\Desktop\Research\light\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312EF79E-F4F2-4C46-A32C-0863C3EBFD81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F734DA-9050-4046-B1F3-BE2E42E0E385}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{78A44B17-F215-4EE0-82B8-A29D23E98A7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{78A44B17-F215-4EE0-82B8-A29D23E98A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="lightAvgTime" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
   <si>
     <t>light1</t>
   </si>
@@ -64,6 +64,38 @@
   </si>
   <si>
     <t>light8</t>
+  </si>
+  <si>
+    <t>light a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>light b</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>light c</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>light d</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>light e</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>light f</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>light g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>light h</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -196,7 +228,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1111,7 +1143,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2026,7 +2058,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2941,7 +2973,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3856,7 +3888,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4771,7 +4803,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5686,7 +5718,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6603,7 +6635,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7545,7 +7577,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="h:mm;@" sourceLinked="1"/>
+        <c:numFmt formatCode="h;@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7609,6 +7641,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>時間当り平均点灯率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8939,7 +9031,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9122,7 +9214,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9305,7 +9397,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9488,7 +9580,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9671,7 +9763,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9854,7 +9946,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10037,7 +10129,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10222,7 +10314,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -30903,16 +30995,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30986,15 +31078,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33896,37 +33988,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47790AA-7D85-4F0B-875C-91F23A39E79D}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -38490,29 +38582,29 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -41938,7 +42030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C623957D-9F5B-40F6-9FB7-CEF36060FB04}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -43828,7 +43922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F184B85-2B52-4EEC-9E75-C7A54D8AC619}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
